--- a/Data/EC/NIT-9003072801.xlsx
+++ b/Data/EC/NIT-9003072801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E07DCD-6E1B-4CFD-801E-016D9A75C775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBF9026-B9D1-4290-8213-592FED570B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5A0149A-774E-43F4-A530-A0E489E73458}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FBA3AA7B-FD58-49D1-80A3-B6F32CF9F712}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,118 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143332381</t>
+  </si>
+  <si>
+    <t>NELSON ANTONIO MORELOS VARGAS</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1047374016</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO JIMENEZ GARCIA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1002319016</t>
+  </si>
+  <si>
+    <t>EDSON ALBERTO GARCIA SANVHEZ</t>
+  </si>
+  <si>
     <t>1007938604</t>
   </si>
   <si>
     <t>LUIS ANGEL PEREZ BLANCO</t>
   </si>
   <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1047374016</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO JIMENEZ GARCIA</t>
-  </si>
-  <si>
-    <t>1143332381</t>
-  </si>
-  <si>
-    <t>NELSON ANTONIO MORELOS VARGAS</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
     <t>1050958611</t>
   </si>
   <si>
     <t>KELLY JHOANA SIMANCA RAMIREZ</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -590,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21051C8-DC2A-3390-51F5-FEC42D35F896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2CAA14-90D7-3ED7-87A2-FAC889AB24AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F536B-64CF-4F71-9BB8-FB7960BA7287}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E3E7E5-9EB1-4618-9246-126C441C6230}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -966,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1043,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3522666</v>
+        <v>3940666</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1096,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1119,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>22666</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1133,13 +1142,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1156,13 +1165,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1179,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1208,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1225,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1271,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1294,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1317,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1340,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1369,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1392,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1409,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1432,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1461,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1478,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1501,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1524,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1553,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1570,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1593,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1616,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1639,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1662,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1685,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1708,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1731,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1754,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1777,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1800,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1823,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1846,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1869,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1892,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1915,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1938,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1961,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1984,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2007,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2030,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2053,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2076,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2099,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2122,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2145,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2168,13 +2177,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2191,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2214,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2237,13 +2246,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2260,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2283,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2306,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>32</v>
@@ -2329,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2352,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2375,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2398,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2421,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G73" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2444,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2467,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2490,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2513,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2536,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2559,19 +2568,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2582,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2605,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2628,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F82" s="18">
-        <v>22666</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
         <v>1000000</v>
@@ -2651,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F83" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2674,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
         <v>40000</v>
@@ -2697,13 +2706,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2720,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F86" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2743,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F87" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G87" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2766,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
@@ -2789,13 +2798,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -2812,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
@@ -2835,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F91" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G91" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2858,13 +2867,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F92" s="18">
         <v>40000</v>
@@ -2881,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F93" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G93" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2904,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -2927,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F95" s="18">
         <v>40000</v>
@@ -2950,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F96" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G96" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -2973,13 +2982,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -2996,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3019,13 +3028,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3042,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3065,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F101" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3088,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3111,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3134,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F104" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G104" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3157,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F105" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3180,75 +3189,282 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G106" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G107" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G108" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G111" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G112" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G113" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G114" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F107" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G107" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="F116" s="24">
+        <v>26000</v>
+      </c>
+      <c r="G116" s="24">
+        <v>650000</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003072801.xlsx
+++ b/Data/EC/NIT-9003072801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBF9026-B9D1-4290-8213-592FED570B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEE2406-6FDB-4072-9FC1-A74715D64B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FBA3AA7B-FD58-49D1-80A3-B6F32CF9F712}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B340AAFE-46DF-4D8F-B3E8-753422C5AB01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="80">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,121 +71,178 @@
     <t>NELSON ANTONIO MORELOS VARGAS</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1047374016</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO JIMENEZ GARCIA</t>
+  </si>
+  <si>
+    <t>1007938604</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL PEREZ BLANCO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1050958611</t>
+  </si>
+  <si>
+    <t>KELLY JHOANA SIMANCA RAMIREZ</t>
+  </si>
+  <si>
     <t>2410</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1047374016</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO JIMENEZ GARCIA</t>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1002319016</t>
-  </si>
-  <si>
-    <t>EDSON ALBERTO GARCIA SANVHEZ</t>
-  </si>
-  <si>
-    <t>1007938604</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL PEREZ BLANCO</t>
-  </si>
-  <si>
-    <t>1050958611</t>
-  </si>
-  <si>
-    <t>KELLY JHOANA SIMANCA RAMIREZ</t>
+    <t>8167129</t>
+  </si>
+  <si>
+    <t>EDUARDO MENA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1143385957</t>
+  </si>
+  <si>
+    <t>DAYANA PAOLA MARUN UPARELA</t>
+  </si>
+  <si>
+    <t>1216978417</t>
+  </si>
+  <si>
+    <t>EVER DAVID OTERO REYES</t>
+  </si>
+  <si>
+    <t>1007970592</t>
+  </si>
+  <si>
+    <t>CAROLINA ISABEL MARTINEZ CRESPO</t>
+  </si>
+  <si>
+    <t>1143402609</t>
+  </si>
+  <si>
+    <t>KEYLA MARIA HERNANDEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1143377901</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE ALTAMIRANDA GONZALEZ</t>
+  </si>
+  <si>
+    <t>1216972976</t>
+  </si>
+  <si>
+    <t>TOMMY ESPAÃ±A GRANADOS</t>
+  </si>
+  <si>
+    <t>1049537253</t>
+  </si>
+  <si>
+    <t>HOLLMAN YESID SALAS OROZCO</t>
+  </si>
+  <si>
+    <t>3800352</t>
+  </si>
+  <si>
+    <t>DANIEL ENRIQUE ALTAMAR JIMENEZ</t>
+  </si>
+  <si>
+    <t>1043634564</t>
+  </si>
+  <si>
+    <t>GIANELA DEL CARMEN UTRIA POLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2CAA14-90D7-3ED7-87A2-FAC889AB24AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBF3544-3824-502F-719D-5006C42CC616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +1007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E3E7E5-9EB1-4618-9246-126C441C6230}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179046D-CC5B-4E10-B5DA-F8A9E49D5529}">
+  <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -962,7 +1019,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -975,7 +1032,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +1077,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1109,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3940666</v>
+        <v>4510360</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,17 +1125,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1105,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>22666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1142,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1165,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1194,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1211,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1234,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1280,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1303,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1332,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1349,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1372,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1401,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1418,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1441,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1470,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1487,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1510,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1539,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1556,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1579,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1608,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1625,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1648,13 +1705,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1671,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1694,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1717,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1740,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1763,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1786,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1809,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1832,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1855,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1878,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1901,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1924,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1947,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1970,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1993,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2016,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2039,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2062,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2085,13 +2142,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2108,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2131,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2154,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2177,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2200,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2223,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2246,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2269,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2292,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2315,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>32</v>
@@ -2338,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2361,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2384,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2407,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2430,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2453,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2476,13 +2533,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2499,13 +2556,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2522,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2545,13 +2602,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2568,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2591,16 +2648,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>22666</v>
       </c>
       <c r="G80" s="18">
         <v>1000000</v>
@@ -2614,13 +2671,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2637,13 +2694,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2660,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2683,13 +2740,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F84" s="18">
         <v>40000</v>
@@ -2706,13 +2763,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2729,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2752,13 +2809,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F87" s="18">
         <v>40000</v>
@@ -2775,13 +2832,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
@@ -2798,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2821,13 +2878,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
@@ -2844,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
@@ -2867,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2890,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -2913,13 +2970,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -2936,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2959,13 +3016,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -2982,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -3005,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3028,13 +3085,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3051,13 +3108,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3074,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G101" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3097,13 +3154,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3120,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3143,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="G104" s="18">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3166,13 +3223,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
@@ -3189,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3212,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
         <v>26000</v>
@@ -3235,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G108" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3258,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3281,13 +3338,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
         <v>26000</v>
@@ -3310,13 +3367,13 @@
         <v>49</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F111" s="18">
-        <v>26000</v>
+        <v>80000</v>
       </c>
       <c r="G111" s="18">
-        <v>650000</v>
+        <v>2000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3327,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F112" s="18">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3350,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F113" s="18">
-        <v>26000</v>
+        <v>104000</v>
       </c>
       <c r="G113" s="18">
-        <v>650000</v>
+        <v>2600000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3373,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F114" s="18">
-        <v>26000</v>
+        <v>102156</v>
       </c>
       <c r="G114" s="18">
-        <v>650000</v>
+        <v>2553909</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3396,75 +3453,236 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F115" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G115" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="24">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F116" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="18">
+        <v>126156</v>
+      </c>
+      <c r="G117" s="18">
+        <v>3153909</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F118" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G118" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" s="18">
         <v>26000</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G119" s="18">
         <v>650000</v>
       </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F120" s="18">
+        <v>78682</v>
+      </c>
+      <c r="G120" s="18">
+        <v>1967040</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G121" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G123" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="26"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="H128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="H129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H128:J128"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
